--- a/statistics/HistoricalDistanceData/historical_distance/Q61963712-en.xlsx
+++ b/statistics/HistoricalDistanceData/historical_distance/Q61963712-en.xlsx
@@ -31,40 +31,40 @@
     <t>uri</t>
   </si>
   <si>
+    <t>Lee County, Alabama</t>
+  </si>
+  <si>
     <t>NOAA National Weather Service</t>
   </si>
   <si>
-    <t>Lee County, Alabama</t>
+    <t>County Road 79 Tornado - March 3, 2019</t>
+  </si>
+  <si>
+    <t>Tornadoes of March 3, 2019</t>
   </si>
   <si>
     <t>Davisville-Corbett Crossroad Tornado - March 3, 2019</t>
   </si>
   <si>
-    <t>County Road 79 Tornado - March 3, 2019</t>
-  </si>
-  <si>
-    <t>Tornadoes of March 3, 2019</t>
-  </si>
-  <si>
     <t>1-01-01T00:00:00UTC</t>
   </si>
   <si>
     <t>unknown</t>
   </si>
   <si>
+    <t>http://www.tornadohistoryproject.com/tornado/Alabama/Lee/map</t>
+  </si>
+  <si>
     <t>https://www.weather.gov/chs/LibertyCountytornado2019</t>
   </si>
   <si>
-    <t>http://www.tornadohistoryproject.com/tornado/Alabama/Lee/map</t>
+    <t>https://www.weather.gov/bmx/event_03032019cr79</t>
+  </si>
+  <si>
+    <t>https://www.weather.gov/bmx/event_03032019</t>
   </si>
   <si>
     <t>https://www.weather.gov/bmx/event_03032019davisville</t>
-  </si>
-  <si>
-    <t>https://www.weather.gov/bmx/event_03032019cr79</t>
-  </si>
-  <si>
-    <t>https://www.weather.gov/bmx/event_03032019</t>
   </si>
 </sst>
 </file>
